--- a/文档/日报/数字货币_单元测试记录_V1.1.xlsx
+++ b/文档/日报/数字货币_单元测试记录_V1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D09D65-B18B-4BCA-B454-0727E8B77062}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA52CE30-5E87-49DC-BB85-A33AC0A7FF71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="771" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,10 +89,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差错异常回查成功，更新差错状态为成功，清算状态为成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>执行成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,42 @@
   </si>
   <si>
     <t>模拟清算差错异常回查失败，重复发起清算差错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回异常 差错补账成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回异常 差错补账失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回异常  回查成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回超时，发起清算差错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回异常 回查失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑回超时，重复发起兑回差错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模拟兑回差错异常回查失败，重复发起兑回差错</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差错异常回查成功，更新差错状态为成功，更新清算状态为成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>差错异常回查成功，登记账务成功表，登记业务终态表，更新差错状态为成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +215,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9C5700"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -203,7 +243,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -248,19 +288,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -274,37 +301,34 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -315,6 +339,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -334,7 +426,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -647,22 +739,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B07D7F8-7FA7-455B-96A0-F6B03118F1C3}">
-  <dimension ref="B2:K7"/>
+  <dimension ref="B2:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="8" max="8" width="11.75" customWidth="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="19.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -674,145 +770,210 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="J4" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="6" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3">
+    <row r="8" spans="2:10" ht="36" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
-    <row r="7" spans="2:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3">
+    <row r="10" spans="2:10" ht="24" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+  <mergeCells count="1">
+    <mergeCell ref="B2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
